--- a/biology/Médecine/Artère_tibiale_postérieure/Artère_tibiale_postérieure.xlsx
+++ b/biology/Médecine/Artère_tibiale_postérieure/Artère_tibiale_postérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_tibiale_post%C3%A9rieure</t>
+          <t>Artère_tibiale_postérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère tibiale postérieure est une artère du membre inférieur située dans la jambe.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_tibiale_post%C3%A9rieure</t>
+          <t>Artère_tibiale_postérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère tibiale postérieure nait de l'artère poplitée au niveau de l'arcade tendineuse du muscle soléaire.
-Remarque terminologique
-Dans la littérature, la portion initiale de l'artère tibiale postérieure située avant la naissance de l'artère fibulaire est souvent nommée tronc tibio-péronier ou tronc tibio-fibulaire, et l'artère tibiale postérieure est considérée comme une branche de ce tronc.
-Les nomenclatures TA98 et TA2 considère que cette artère nait directement de l'artère poplitée.
 </t>
         </is>
       </c>
@@ -527,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_tibiale_post%C3%A9rieure</t>
+          <t>Artère_tibiale_postérieure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Trajet</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'artère tibiale postérieure descend dans la loge crurale postérieure entre ses parties profonde et superficielle.
-Elle passe derrière la malléole médiale en s'orientant vers l'avant. Au niveau du sillon du tendon du muscle long fléchisseur de l’hallux, elle se divise en ses deux branches terminales : les artères plantaires médiale et latérale.
+          <t>Remarque terminologique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la littérature, la portion initiale de l'artère tibiale postérieure située avant la naissance de l'artère fibulaire est souvent nommée tronc tibio-péronier ou tronc tibio-fibulaire, et l'artère tibiale postérieure est considérée comme une branche de ce tronc.
+Les nomenclatures TA98 et TA2 considère que cette artère nait directement de l'artère poplitée.
 </t>
         </is>
       </c>
@@ -559,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_tibiale_post%C3%A9rieure</t>
+          <t>Artère_tibiale_postérieure</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +591,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'artère tibiale postérieure descend dans la loge crurale postérieure entre ses parties profonde et superficielle.
+Elle passe derrière la malléole médiale en s'orientant vers l'avant. Au niveau du sillon du tendon du muscle long fléchisseur de l’hallux, elle se divise en ses deux branches terminales : les artères plantaires médiale et latérale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Artère_tibiale_postérieure</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art%C3%A8re_tibiale_post%C3%A9rieure</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Branches collatérales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère tibiale postérieure donne naissance à une artère nourricière du tibia, au rameau circonflexe fibulaire de l'artère tibiale postérieure et à l'artère fibulaire. Cette dernière constituant sa branche la plus importante.
 Elle fournit de nombreux rameaux musculaires à l'ensemble des muscles de la loge crurale postérieure.
@@ -587,31 +640,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Art%C3%A8re_tibiale_post%C3%A9rieure</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Artère_tibiale_postérieure</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Art%C3%A8re_tibiale_post%C3%A9rieure</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pouls de l'artère tibiale postérieure peut être facilement palpé à mi-chemin entre le bord postérieur de la malléole médiale et le tendon calcanéen.
 </t>
